--- a/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.78326257111399</v>
+        <v>92.63047704833843</v>
       </c>
       <c r="D2" t="n">
-        <v>7.824057781824921</v>
+        <v>8.029518942600252</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.63804190603051</v>
+        <v>91.9985887224</v>
       </c>
       <c r="D3" t="n">
-        <v>8.689588891046123</v>
+        <v>8.337747731939109</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.26093849324312</v>
+        <v>90.20606961406213</v>
       </c>
       <c r="D4" t="n">
-        <v>8.624527363216391</v>
+        <v>8.246740310585245</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.91034523199187</v>
+        <v>90.21236671977788</v>
       </c>
       <c r="D5" t="n">
-        <v>8.319571012923978</v>
+        <v>8.327748193939424</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.01484683124039</v>
+        <v>88.78631717432945</v>
       </c>
       <c r="D6" t="n">
-        <v>8.121901099380191</v>
+        <v>8.16553709153955</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.55012230957975</v>
+        <v>89.19915426225219</v>
       </c>
       <c r="D7" t="n">
-        <v>9.614406748578389</v>
+        <v>7.136559399397166</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.82082020116388</v>
+        <v>85.37915231792803</v>
       </c>
       <c r="D8" t="n">
-        <v>8.856229641649794</v>
+        <v>6.835622628783696</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.99287705509421</v>
+        <v>86.10691419043457</v>
       </c>
       <c r="D9" t="n">
-        <v>8.440378762939041</v>
+        <v>6.855251346824961</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>86.04823036755695</v>
+        <v>84.49845247634752</v>
       </c>
       <c r="D10" t="n">
-        <v>9.824431846924881</v>
+        <v>8.114110855494221</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.76377746903303</v>
+        <v>83.49310662313759</v>
       </c>
       <c r="D11" t="n">
-        <v>8.508392158590105</v>
+        <v>7.177425032460662</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.40779989910124</v>
+        <v>82.2651910183493</v>
       </c>
       <c r="D12" t="n">
-        <v>8.220059078570177</v>
+        <v>7.235093535555293</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.36459911299505</v>
+        <v>81.86408881615806</v>
       </c>
       <c r="D13" t="n">
-        <v>7.362638413761673</v>
+        <v>7.487097131096348</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.30133417536895</v>
+        <v>81.37596412988719</v>
       </c>
       <c r="D14" t="n">
-        <v>7.848833061000747</v>
+        <v>7.286715089196287</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.34046150673433</v>
+        <v>80.64420362641683</v>
       </c>
       <c r="D15" t="n">
-        <v>7.973895059452446</v>
+        <v>8.391283000963076</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.38048215673331</v>
+        <v>78.49808356839682</v>
       </c>
       <c r="D16" t="n">
-        <v>7.545005002875985</v>
+        <v>7.743965887380969</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.56000361149478</v>
+        <v>78.46187522593389</v>
       </c>
       <c r="D17" t="n">
-        <v>8.043600988435559</v>
+        <v>7.79831784379615</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.6525012867783</v>
+        <v>75.70926977038927</v>
       </c>
       <c r="D18" t="n">
-        <v>8.185858026269914</v>
+        <v>6.782962302866367</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.27052635126535</v>
+        <v>74.30191353766445</v>
       </c>
       <c r="D19" t="n">
-        <v>7.519367434737679</v>
+        <v>8.36787102711595</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.02961844764009</v>
+        <v>75.08072381157986</v>
       </c>
       <c r="D20" t="n">
-        <v>7.136745480808555</v>
+        <v>7.097706636619385</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.26285239859155</v>
+        <v>73.07849466845042</v>
       </c>
       <c r="D21" t="n">
-        <v>8.361061862923403</v>
+        <v>7.244218605450508</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.30297228165078</v>
+        <v>72.15004997209552</v>
       </c>
       <c r="D22" t="n">
-        <v>8.03043445598332</v>
+        <v>7.351465578673022</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.20608620805619</v>
+        <v>70.26295345089569</v>
       </c>
       <c r="D23" t="n">
-        <v>7.567232766965676</v>
+        <v>8.300311637454143</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.12773963080785</v>
+        <v>69.30857715170913</v>
       </c>
       <c r="D24" t="n">
-        <v>7.163483396764328</v>
+        <v>7.88238147499007</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.65837552995499</v>
+        <v>70.06991110770977</v>
       </c>
       <c r="D25" t="n">
-        <v>7.703394588364121</v>
+        <v>7.253883933638537</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.82467039070976</v>
+        <v>66.44038534160458</v>
       </c>
       <c r="D26" t="n">
-        <v>8.043615421290047</v>
+        <v>7.413519439766514</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.4545998505203</v>
+        <v>66.09309910409233</v>
       </c>
       <c r="D27" t="n">
-        <v>7.63798221554937</v>
+        <v>7.596116180819077</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.85270500067955</v>
+        <v>65.23383404439838</v>
       </c>
       <c r="D28" t="n">
-        <v>8.307503424539213</v>
+        <v>7.300660640860418</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.19442009669994</v>
+        <v>64.0580361427804</v>
       </c>
       <c r="D29" t="n">
-        <v>7.966142495714879</v>
+        <v>7.358634464037928</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.0506363799244</v>
+        <v>63.65023823172346</v>
       </c>
       <c r="D30" t="n">
-        <v>8.65463063982288</v>
+        <v>6.826139664534747</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.99189455840359</v>
+        <v>61.81958966704882</v>
       </c>
       <c r="D31" t="n">
-        <v>8.496374796393678</v>
+        <v>7.706064135163866</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.2253326792131</v>
+        <v>60.93359326971356</v>
       </c>
       <c r="D32" t="n">
-        <v>7.480792594642168</v>
+        <v>7.765483901762265</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.95169488691984</v>
+        <v>58.87872642127584</v>
       </c>
       <c r="D33" t="n">
-        <v>7.127046954041202</v>
+        <v>6.940946743223138</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.11974202301366</v>
+        <v>58.61368503961855</v>
       </c>
       <c r="D34" t="n">
-        <v>7.586684403247139</v>
+        <v>7.1553643526625</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.368336520111</v>
+        <v>58.68976047173012</v>
       </c>
       <c r="D35" t="n">
-        <v>7.517207386255037</v>
+        <v>7.842908137088183</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.1505446714644</v>
+        <v>55.3801639701086</v>
       </c>
       <c r="D36" t="n">
-        <v>8.324013754106927</v>
+        <v>7.102084475639526</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.86584247614362</v>
+        <v>56.0665366550815</v>
       </c>
       <c r="D37" t="n">
-        <v>8.346378685868133</v>
+        <v>7.223304874115941</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.48356042121438</v>
+        <v>54.46064650959326</v>
       </c>
       <c r="D38" t="n">
-        <v>8.505851514256664</v>
+        <v>7.843290291453082</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.48458831906623</v>
+        <v>53.43947670339684</v>
       </c>
       <c r="D39" t="n">
-        <v>8.123845726263639</v>
+        <v>7.223442430404111</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.14063559485206</v>
+        <v>52.80208976058218</v>
       </c>
       <c r="D40" t="n">
-        <v>7.76729595924349</v>
+        <v>7.446974804627284</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.73100819351576</v>
+        <v>50.43503668664978</v>
       </c>
       <c r="D41" t="n">
-        <v>8.057513806956548</v>
+        <v>7.048846530201349</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.52922664963032</v>
+        <v>49.91326317837342</v>
       </c>
       <c r="D42" t="n">
-        <v>7.162927502111394</v>
+        <v>8.115634043171841</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.07504932678496</v>
+        <v>50.04394169103429</v>
       </c>
       <c r="D43" t="n">
-        <v>7.85476857249735</v>
+        <v>7.813655257286996</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.89939163651079</v>
+        <v>48.1658497917657</v>
       </c>
       <c r="D44" t="n">
-        <v>8.348590333579871</v>
+        <v>8.32228429795143</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.71852064691625</v>
+        <v>47.88643776185304</v>
       </c>
       <c r="D45" t="n">
-        <v>7.267047302245035</v>
+        <v>8.173068683221009</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.3237190892161</v>
+        <v>45.38901239247911</v>
       </c>
       <c r="D46" t="n">
-        <v>7.50232848543595</v>
+        <v>8.22344021698281</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.86007986152329</v>
+        <v>44.03986274754336</v>
       </c>
       <c r="D47" t="n">
-        <v>7.505905122158834</v>
+        <v>7.101833683448635</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.47955543930838</v>
+        <v>45.44731277305677</v>
       </c>
       <c r="D48" t="n">
-        <v>8.705573903691619</v>
+        <v>7.276776247473016</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.99251727380399</v>
+        <v>42.81186793043536</v>
       </c>
       <c r="D49" t="n">
-        <v>7.605652055821902</v>
+        <v>6.798689560183085</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.27007167958241</v>
+        <v>42.64533480400831</v>
       </c>
       <c r="D50" t="n">
-        <v>7.14199515629237</v>
+        <v>7.591483727691336</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.59356426642673</v>
+        <v>41.70137996619692</v>
       </c>
       <c r="D51" t="n">
-        <v>6.550839430875762</v>
+        <v>7.152838830639427</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.93321200151021</v>
+        <v>39.69757548822282</v>
       </c>
       <c r="D52" t="n">
-        <v>6.928990194571416</v>
+        <v>7.286696984331502</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.38245404038776</v>
+        <v>37.67253976391586</v>
       </c>
       <c r="D53" t="n">
-        <v>7.686215630320255</v>
+        <v>8.205442358243983</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.32705761151128</v>
+        <v>37.76859570894862</v>
       </c>
       <c r="D54" t="n">
-        <v>8.120582046883737</v>
+        <v>7.503627984779129</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.67241733944397</v>
+        <v>36.33420749389977</v>
       </c>
       <c r="D55" t="n">
-        <v>7.934353309827324</v>
+        <v>7.549854079889883</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.287060221221</v>
+        <v>36.05880495624103</v>
       </c>
       <c r="D56" t="n">
-        <v>7.126722467106539</v>
+        <v>6.940648181348457</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.60792556821053</v>
+        <v>35.23032119976962</v>
       </c>
       <c r="D57" t="n">
-        <v>7.55313754704521</v>
+        <v>7.461289800428597</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.60223107898177</v>
+        <v>33.65889452075975</v>
       </c>
       <c r="D58" t="n">
-        <v>7.050624046727649</v>
+        <v>8.176269562761888</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.07488153456405</v>
+        <v>32.58799042066309</v>
       </c>
       <c r="D59" t="n">
-        <v>7.728179761253978</v>
+        <v>7.062053278388839</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.00579019765506</v>
+        <v>31.102349283405</v>
       </c>
       <c r="D60" t="n">
-        <v>8.518464865666274</v>
+        <v>7.722734816078957</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.50546145679357</v>
+        <v>30.27757432529202</v>
       </c>
       <c r="D61" t="n">
-        <v>8.872541216561999</v>
+        <v>8.401422552788059</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.01275206479357</v>
+        <v>29.96167525572794</v>
       </c>
       <c r="D62" t="n">
-        <v>7.869941249345274</v>
+        <v>8.686662076873864</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.72630641817473</v>
+        <v>29.1113815739901</v>
       </c>
       <c r="D63" t="n">
-        <v>8.033718702091717</v>
+        <v>6.97656252189342</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.37359310549953</v>
+        <v>27.64872921321025</v>
       </c>
       <c r="D64" t="n">
-        <v>8.649707734645911</v>
+        <v>7.397098545556063</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.30407050537569</v>
+        <v>26.89135569264506</v>
       </c>
       <c r="D65" t="n">
-        <v>8.265091646596957</v>
+        <v>7.007724916439424</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.67560209353661</v>
+        <v>25.49941905997519</v>
       </c>
       <c r="D66" t="n">
-        <v>7.397830185062722</v>
+        <v>6.911782404661112</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.71388946949207</v>
+        <v>25.28322424344197</v>
       </c>
       <c r="D67" t="n">
-        <v>6.645547166751713</v>
+        <v>7.431939516705325</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.90080183520729</v>
+        <v>24.09517075101891</v>
       </c>
       <c r="D68" t="n">
-        <v>7.130426894292699</v>
+        <v>8.06171674503808</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.78620707979236</v>
+        <v>22.85658259220576</v>
       </c>
       <c r="D69" t="n">
-        <v>6.447086548544934</v>
+        <v>7.575970820984913</v>
       </c>
     </row>
   </sheetData>
